--- a/AI_Automation_Details.xlsx
+++ b/AI_Automation_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120" activeTab="7"/>
+    <workbookView windowWidth="22188" windowHeight="9120" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="KMVC E2E" sheetId="4" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="Green1 Historic Data" sheetId="6" r:id="rId6"/>
     <sheet name="Green2 Historic Data" sheetId="7" r:id="rId7"/>
     <sheet name="KMVC Historic Data" sheetId="8" r:id="rId8"/>
+    <sheet name="Daily1 Historic Data" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Green1 Historic Data'!$A$1:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Green1 Historic Data'!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="63">
   <si>
     <t>S.No</t>
   </si>
@@ -171,10 +172,13 @@
     <t>15/05/2024</t>
   </si>
   <si>
+    <t>Case : It is OD Save as New To OD in English</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Case : It is OD Save as New To OD in English</t>
+    <t>NA</t>
   </si>
   <si>
     <t>16/05/2024</t>
@@ -199,6 +203,31 @@
   </si>
   <si>
     <t>18/05/2024</t>
+  </si>
+  <si>
+    <t>Smart Play</t>
+  </si>
+  <si>
+    <t>Case : OD to Simulive : AI Only : English</t>
+  </si>
+  <si>
+    <t>Case : OD to Simulive : AI Only : Japanese</t>
+  </si>
+  <si>
+    <t>Case : Simulive to Simulive : AI+Interaction : English</t>
+  </si>
+  <si>
+    <t>Case : Simulive to Simulive : AI+Interaction : Japanese</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>1. KM: End Result Fails (Reported Bug For This: https://on24-inc.atlassian.net/browse/AE-7)
+2. Bug Status : Dev Assign</t>
+  </si>
+  <si>
+    <t>19/05/2024</t>
   </si>
 </sst>
 </file>
@@ -233,17 +262,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -873,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,7 +912,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,9 +931,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1454,16 +1489,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1474,7 +1509,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1488,7 +1523,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1498,103 +1533,103 @@
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2"/>
     </row>
   </sheetData>
@@ -1619,16 +1654,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1639,7 +1674,7 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1653,7 +1688,7 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1663,103 +1698,103 @@
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2"/>
     </row>
   </sheetData>
@@ -1784,16 +1819,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1804,7 +1839,7 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1818,7 +1853,7 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1828,103 +1863,103 @@
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2"/>
     </row>
   </sheetData>
@@ -1938,7 +1973,7 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1951,16 +1986,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1971,7 +2006,7 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1985,7 +2020,7 @@
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1999,7 +2034,7 @@
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2013,7 +2048,7 @@
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2023,67 +2058,67 @@
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2"/>
     </row>
   </sheetData>
@@ -2109,30 +2144,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="2">
@@ -2150,13 +2185,13 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="9">
         <f>SUM(B2:E2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="2">
@@ -2174,13 +2209,13 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="9">
         <f>SUM(B3:E3)</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="2">
@@ -2198,7 +2233,7 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="9">
         <f>SUM(B4:E4)</f>
         <v>3</v>
       </c>
@@ -2215,22 +2250,24 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="23.2222222222222" customWidth="1"/>
-    <col min="5" max="6" width="23.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="44.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="41.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="23.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="23.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="23.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="18.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2238,390 +2275,441 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>83632270</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>83632655</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>83632727</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>83632781</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6">
         <v>83636122</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6">
         <v>83636349</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="3">
+        <v>47</v>
+      </c>
+      <c r="B8" s="6">
         <v>83636398</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6">
         <v>83636455</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6">
         <v>83639958</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6">
         <v>83640195</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6">
         <v>83640318</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6">
         <v>83640377</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="3">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6">
         <v>83650974</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="3">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6">
         <v>83651114</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6">
         <v>83651173</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="3">
+        <v>49</v>
+      </c>
+      <c r="B17" s="6">
         <v>83651224</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2629,8 +2717,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2638,8 +2727,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2647,8 +2737,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2656,8 +2747,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2665,8 +2757,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2674,8 +2767,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2683,8 +2777,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2692,8 +2787,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2701,8 +2797,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2710,8 +2807,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2719,8 +2817,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2728,8 +2827,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2737,8 +2837,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2746,8 +2847,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2755,8 +2857,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2764,8 +2867,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2773,8 +2877,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2782,8 +2887,9 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2791,8 +2897,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2800,8 +2907,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2809,8 +2917,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2818,8 +2927,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2827,8 +2937,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2836,8 +2947,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2845,8 +2957,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2854,8 +2967,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2863,8 +2977,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2872,8 +2987,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2881,8 +2997,9 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2890,8 +3007,9 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2899,8 +3017,9 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2908,8 +3027,9 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2917,8 +3037,9 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2926,8 +3047,9 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2935,8 +3057,9 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2944,8 +3067,9 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2953,8 +3077,9 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2962,8 +3087,9 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2971,8 +3097,9 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2980,8 +3107,9 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2989,8 +3117,9 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2998,8 +3127,9 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3007,8 +3137,9 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3016,8 +3147,9 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3025,8 +3157,9 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3034,8 +3167,9 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3043,8 +3177,9 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3052,8 +3187,9 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3061,8 +3197,9 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3070,8 +3207,9 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3079,8 +3217,9 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3088,8 +3227,9 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3097,8 +3237,9 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3106,8 +3247,9 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3115,8 +3257,9 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3124,8 +3267,9 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3133,8 +3277,9 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3142,8 +3287,9 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3151,8 +3297,9 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3160,8 +3307,9 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3169,8 +3317,9 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3178,8 +3327,9 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3187,8 +3337,9 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3196,8 +3347,9 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3205,8 +3357,9 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3214,8 +3367,9 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3223,8 +3377,9 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3232,8 +3387,9 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3241,8 +3397,9 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3250,8 +3407,9 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3259,8 +3417,9 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3268,8 +3427,9 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3277,8 +3437,9 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3286,8 +3447,9 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3295,8 +3457,9 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3304,8 +3467,9 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3313,8 +3477,9 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3322,8 +3487,9 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3331,8 +3497,9 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3340,8 +3507,9 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3349,8 +3517,9 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3358,8 +3527,9 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3367,6 +3537,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
+      <c r="H100" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3377,24 +3548,25 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E17"/>
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="10.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="9.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="22.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="45.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="44.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.88888888888889" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="22.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="17.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3402,22 +3574,25 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -3425,22 +3600,25 @@
         <v>83632271</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -3448,22 +3626,25 @@
         <v>83632656</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -3471,22 +3652,25 @@
         <v>83632728</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -3494,298 +3678,337 @@
         <v>83632783</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2">
         <v>83636123</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2">
         <v>83636350</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2">
         <v>83636399</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>83636456</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>83639960</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2">
         <v>83640196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2">
         <v>83640319</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2">
         <v>83640378</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>83650975</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B15" s="2">
         <v>83651115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>83651174</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B17" s="2">
         <v>83651225</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3793,8 +4016,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3802,8 +4026,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3811,8 +4036,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3820,8 +4046,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3829,8 +4056,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3838,8 +4066,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3847,8 +4076,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3856,8 +4086,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3865,8 +4096,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3874,8 +4106,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3883,8 +4116,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3892,8 +4126,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3901,8 +4136,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3910,8 +4146,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3919,8 +4156,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3928,8 +4166,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3937,8 +4176,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3946,8 +4186,9 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3955,8 +4196,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3964,8 +4206,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3973,8 +4216,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3982,8 +4226,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3991,8 +4236,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4000,8 +4246,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4009,8 +4256,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4018,8 +4266,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4027,8 +4276,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4036,8 +4286,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4045,8 +4296,9 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4054,8 +4306,9 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4063,8 +4316,9 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4072,8 +4326,9 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4081,8 +4336,9 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4090,8 +4346,9 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4099,8 +4356,9 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4108,8 +4366,9 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4117,8 +4376,9 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4126,8 +4386,9 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4135,8 +4396,9 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4144,8 +4406,9 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4153,8 +4416,9 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4162,8 +4426,9 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4171,8 +4436,9 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4180,8 +4446,9 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4189,8 +4456,9 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4198,8 +4466,9 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4207,8 +4476,9 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4216,8 +4486,9 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4225,8 +4496,9 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4234,8 +4506,9 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4243,8 +4516,9 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4252,8 +4526,9 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4261,8 +4536,9 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4270,8 +4546,9 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4279,8 +4556,9 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4288,8 +4566,9 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4297,8 +4576,9 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4306,8 +4586,9 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4315,8 +4596,9 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4324,8 +4606,9 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4333,8 +4616,9 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4342,8 +4626,9 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4351,8 +4636,9 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4360,8 +4646,9 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4369,8 +4656,9 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4378,8 +4666,9 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4387,8 +4676,9 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4396,8 +4686,9 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4405,8 +4696,9 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4414,8 +4706,9 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4423,8 +4716,9 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4432,8 +4726,9 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4441,8 +4736,9 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4450,8 +4746,9 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4459,8 +4756,9 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4468,8 +4766,9 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4477,8 +4776,9 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4486,8 +4786,9 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4495,8 +4796,9 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4504,8 +4806,9 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4513,8 +4816,9 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4522,8 +4826,9 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4531,6 +4836,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
+      <c r="H100" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4541,24 +4847,25 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="10.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="9.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="22.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="3" max="3" width="44.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="9.88888888888889" customWidth="1"/>
+    <col min="5" max="5" width="17.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="22.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="17.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -4566,22 +4873,25 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4592,19 +4902,22 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -4612,24 +4925,27 @@
         <v>83632656</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
         <v>83636123</v>
@@ -4638,44 +4954,50 @@
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2">
         <v>83636350</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2">
         <v>83639960</v>
@@ -4684,44 +5006,50 @@
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2">
         <v>83640196</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2">
         <v>83640319</v>
@@ -4730,44 +5058,50 @@
         <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2">
         <v>83640378</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>83651174</v>
@@ -4776,42 +5110,48 @@
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
         <v>83651225</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4819,8 +5159,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4828,8 +5169,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4837,8 +5179,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4846,8 +5189,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4855,8 +5199,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4864,8 +5209,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4873,8 +5219,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4882,8 +5229,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4891,8 +5239,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4900,8 +5249,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4909,8 +5259,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4918,8 +5269,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4927,8 +5279,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4936,8 +5289,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4945,8 +5299,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4954,8 +5309,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4963,8 +5319,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4972,8 +5329,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4981,8 +5339,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4990,8 +5349,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4999,8 +5359,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5008,8 +5369,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5017,8 +5379,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5026,8 +5389,9 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5035,8 +5399,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5044,8 +5409,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -5053,8 +5419,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -5062,8 +5429,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -5071,8 +5439,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -5080,8 +5449,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5089,8 +5459,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5098,8 +5469,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5107,8 +5479,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5116,8 +5489,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5125,8 +5499,9 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5134,8 +5509,9 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5143,8 +5519,9 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5152,8 +5529,9 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5161,8 +5539,9 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5170,8 +5549,9 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5179,8 +5559,9 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5188,8 +5569,9 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5197,8 +5579,9 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5206,8 +5589,9 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -5215,8 +5599,9 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -5224,8 +5609,9 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5233,8 +5619,9 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5242,8 +5629,9 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5251,8 +5639,9 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -5260,8 +5649,9 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -5269,8 +5659,9 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -5278,8 +5669,9 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -5287,8 +5679,9 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -5296,8 +5689,9 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -5305,8 +5699,9 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5314,8 +5709,9 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -5323,8 +5719,9 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5332,8 +5729,9 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5341,8 +5739,9 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5350,8 +5749,9 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5359,8 +5759,9 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5368,8 +5769,9 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5377,8 +5779,9 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5386,8 +5789,9 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5395,8 +5799,9 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5404,8 +5809,9 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5413,8 +5819,9 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5422,8 +5829,9 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5431,8 +5839,9 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5440,8 +5849,9 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5449,8 +5859,9 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5458,8 +5869,9 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5467,8 +5879,9 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5476,8 +5889,9 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5485,8 +5899,9 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5494,8 +5909,9 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5503,8 +5919,9 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5512,8 +5929,9 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5521,8 +5939,9 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5530,8 +5949,9 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5539,8 +5959,9 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5548,8 +5969,9 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5557,24 +5979,1374 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="7:7">
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="7:7">
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="7:7">
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="7:7">
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="7:7">
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="7:7">
-      <c r="G100" s="2"/>
+      <c r="H94" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="47.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="9.88888888888889" customWidth="1"/>
+    <col min="5" max="5" width="17.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="14.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="17.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="44.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2">
+        <v>83630510</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2">
+        <v>83630942</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2">
+        <v>83631397</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2">
+        <v>83631676</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2">
+        <v>83634582</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2">
+        <v>83634978</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2">
+        <v>83635348</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2">
+        <v>83635669</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2">
+        <v>83638365</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
+        <v>83638861</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" ht="41.4" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2">
+        <v>83639338</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" ht="41.4" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2">
+        <v>83639651</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2">
+        <v>83642109</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2">
+        <v>83642614</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" ht="41.4" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
+        <v>83643048</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2">
+        <v>83643350</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2">
+        <v>83645429</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2">
+        <v>83645871</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2">
+        <v>83646333</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2">
+        <v>83646649</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2">
+        <v>83648523</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2">
+        <v>83648950</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2">
+        <v>83649394</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2">
+        <v>83649790</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
